--- a/SoundListe.xlsx
+++ b/SoundListe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Family</t>
   </si>
@@ -121,13 +121,43 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/deleted_user_7146007/sounds/383435/</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Leafs67/sounds/155589/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/aabbccddee123/sounds/469086/</t>
+  </si>
+  <si>
+    <t>laufen hohes Gras</t>
+  </si>
+  <si>
+    <t>regular walk</t>
+  </si>
+  <si>
+    <t>bump</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/14GPanskaValaChristoffer/sounds/420171/#</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Sethroph/sounds/334218/#</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/batchku/sounds/10409/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +176,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,11 +211,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -185,8 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -487,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,6 +568,12 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -588,6 +635,9 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -599,6 +649,9 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -607,9 +660,15 @@
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -618,11 +677,11 @@
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -632,8 +691,11 @@
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -644,10 +706,10 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,8 +719,8 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="D13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -669,7 +731,10 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -680,29 +745,29 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -713,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -724,7 +789,7 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -735,7 +800,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -746,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -757,37 +822,67 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://freesound.org/people/14GPanskaValaChristoffer/sounds/420171/"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://freesound.org/people/Sethroph/sounds/334218/"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/SoundListe.xlsx
+++ b/SoundListe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Family</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Licht-Rettung-Summon</t>
   </si>
   <si>
-    <t>rauschen</t>
-  </si>
-  <si>
     <t>laufen</t>
   </si>
   <si>
     <t>Kautz</t>
   </si>
   <si>
-    <t>springen</t>
-  </si>
-  <si>
     <t>landen</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Federn rascheln</t>
   </si>
   <si>
-    <t>Gras rascheln</t>
-  </si>
-  <si>
     <t>Voice</t>
   </si>
   <si>
@@ -151,6 +142,66 @@
   </si>
   <si>
     <t>https://freesound.org/people/batchku/sounds/10409/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/syntheway/sounds/278903/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Bpianoholic/sounds/487613/</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/markiboy123/sounds/417692/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/tim.kahn/sounds/180479/</t>
+  </si>
+  <si>
+    <t>Heavenly</t>
+  </si>
+  <si>
+    <t>anderer</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/newagesoup/sounds/344534/</t>
+  </si>
+  <si>
+    <t>electric circuits</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Benboncan/sounds/64544/</t>
+  </si>
+  <si>
+    <t>Growling</t>
+  </si>
+  <si>
+    <t>Monster Growl</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/JuliusMabe/sounds/379500/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Cell31_Sound_Productions/sounds/209388/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/ShaneF91/sounds/386572/</t>
+  </si>
+  <si>
+    <t>komischer Geister Sound</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/402521/</t>
+  </si>
+  <si>
+    <t>nach einem Sprung</t>
+  </si>
+  <si>
+    <t>rauschen I</t>
+  </si>
+  <si>
+    <t>rauschen II</t>
   </si>
 </sst>
 </file>
@@ -216,7 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -225,6 +276,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -528,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,16 +618,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -580,13 +635,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -594,10 +652,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -605,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -619,24 +683,33 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -644,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -658,16 +731,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -675,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -689,13 +762,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -703,13 +776,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -717,10 +790,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -728,13 +807,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -742,135 +824,187 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -880,9 +1014,19 @@
     <hyperlink ref="E12" r:id="rId4" display="https://freesound.org/people/14GPanskaValaChristoffer/sounds/420171/"/>
     <hyperlink ref="E8" r:id="rId5" display="https://freesound.org/people/Sethroph/sounds/334218/"/>
     <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E27" r:id="rId9"/>
+    <hyperlink ref="E26" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="E23" r:id="rId14"/>
+    <hyperlink ref="E14" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/SoundListe.xlsx
+++ b/SoundListe.xlsx
@@ -592,7 +592,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">

--- a/SoundListe.xlsx
+++ b/SoundListe.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francie\Studium\Übergeordnete Inhalte\Git\FridolinsAdventure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD5DAF-4C2D-4F9B-8CCD-51F9B35CD6FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="60" windowWidth="18900" windowHeight="7090"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -207,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +288,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -292,14 +298,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,9 +346,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +433,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,22 +1051,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4" display="https://freesound.org/people/14GPanskaValaChristoffer/sounds/420171/"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://freesound.org/people/Sethroph/sounds/334218/"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="E4" r:id="rId8"/>
-    <hyperlink ref="E27" r:id="rId9"/>
-    <hyperlink ref="E26" r:id="rId10"/>
-    <hyperlink ref="E6" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E28" r:id="rId13"/>
-    <hyperlink ref="E23" r:id="rId14"/>
-    <hyperlink ref="E14" r:id="rId15"/>
-    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://freesound.org/people/14GPanskaValaChristoffer/sounds/420171/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://freesound.org/people/Sethroph/sounds/334218/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
@@ -1031,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1043,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
